--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/20.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/20.xlsx
@@ -479,13 +479,13 @@
         <v>-20.826633239366</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.876204363746956</v>
+        <v>-9.582953055749012</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.90657249851933</v>
+        <v>-2.973866935125801</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.405631264948002</v>
+        <v>-6.308607391941848</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-20.63475411633017</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.148681370488958</v>
+        <v>-9.867605904133821</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.950588820673213</v>
+        <v>-2.939447270954904</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.330913492630271</v>
+        <v>-6.266175238431814</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-20.35839364631791</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.971467142577234</v>
+        <v>-10.6949739822167</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.824064806010772</v>
+        <v>-2.763525997670631</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.197083972982147</v>
+        <v>-6.145712959985093</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-19.99792789923798</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.7418837032986</v>
+        <v>-11.43262050892523</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.7493339413902</v>
+        <v>-2.717729122330273</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.418736660092569</v>
+        <v>-6.383390625773788</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-19.56010877064244</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.53273734875591</v>
+        <v>-12.27310707445552</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.59786908981427</v>
+        <v>-2.532486129422691</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.966607073756402</v>
+        <v>-5.898216067065103</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-19.05298841608667</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.21571041879739</v>
+        <v>-12.95838438979714</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.583899602682149</v>
+        <v>-2.48030021029557</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.071685896364095</v>
+        <v>-5.986445095915495</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-18.48782935326205</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.73678407189809</v>
+        <v>-13.5225579038528</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.459719110228377</v>
+        <v>-2.383037492484388</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.620368032804113</v>
+        <v>-5.486266758150192</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-17.87953267913186</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.69782456199499</v>
+        <v>-14.52042704184348</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.200517698567884</v>
+        <v>-2.180486475220043</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.519203808746096</v>
+        <v>-5.296821136030416</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-17.24205417900367</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.45585580422809</v>
+        <v>-15.27756800748334</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.181743336292849</v>
+        <v>-2.153045008463786</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.109519468222804</v>
+        <v>-4.905701680936692</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-16.59846362770836</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.12657447880972</v>
+        <v>-15.96755855184799</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.020629457522568</v>
+        <v>-1.952261452083075</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.89771219284936</v>
+        <v>-4.668600076473033</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-15.96834001264173</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.77337351609951</v>
+        <v>-16.62119177122116</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.039259804466345</v>
+        <v>-2.047560324467999</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.389194058173878</v>
+        <v>-4.143664194034026</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-15.36378906583853</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.73577560569195</v>
+        <v>-17.59261445747156</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.851228151053475</v>
+        <v>-1.838646448022576</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.748338926374228</v>
+        <v>-3.478889424942543</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-14.80904918773032</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.35449165338624</v>
+        <v>-18.18604926837847</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.596360291633593</v>
+        <v>-1.579824713144493</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.375129741567985</v>
+        <v>-3.182610611634282</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-14.31623693850414</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.25282001287128</v>
+        <v>-19.1078128499502</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.450800068639283</v>
+        <v>-1.440430964788636</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.811872688711246</v>
+        <v>-2.598248766596681</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-13.89303306592051</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.14660534327023</v>
+        <v>-20.01698163618818</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.293024727093642</v>
+        <v>-1.270767812262708</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.399085472414465</v>
+        <v>-2.178967768090403</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-13.54272342193249</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.93976323402768</v>
+        <v>-20.8162798169784</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.061317151400774</v>
+        <v>-1.081518574685557</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.8829345251822563</v>
+        <v>-1.682232705972475</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-13.26055788367026</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.89681057175785</v>
+        <v>-21.7712978477681</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9776049670307776</v>
+        <v>-0.9878562401558491</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.5163500456139265</v>
+        <v>-1.305619522427383</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-13.04291285047642</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.73279338511059</v>
+        <v>-22.61271396680015</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8262579461804243</v>
+        <v>-0.8833534788731916</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1429706608707408</v>
+        <v>-0.9554004214112102</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-12.88267532059012</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.37223454820333</v>
+        <v>-23.29136657690387</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5763782541432405</v>
+        <v>-0.6612425611633089</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2336556149771931</v>
+        <v>-0.6057835663257573</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-12.7663102337543</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.99730036277586</v>
+        <v>-23.90590617999165</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2780308569859868</v>
+        <v>-0.3878490932223851</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5721701972528623</v>
+        <v>-0.2449466077049451</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-12.68500239700296</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.63610000302936</v>
+        <v>-24.57225202542414</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.05245047902304671</v>
+        <v>-0.2248237382372121</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5857992845110991</v>
+        <v>-0.08520742073304532</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-12.63003413319816</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.11663988653207</v>
+        <v>-25.00046197446847</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04610837676946714</v>
+        <v>-0.1579482553216754</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8515468475924548</v>
+        <v>0.1288648230320176</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-12.59067707358617</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.4845728732931</v>
+        <v>-25.41915381934687</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02416567720673424</v>
+        <v>-0.1966752871275011</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7961925911776371</v>
+        <v>0.1497077691560455</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-12.55782885549855</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.77001125984841</v>
+        <v>-25.68022743031373</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3115024476740962</v>
+        <v>0.1009651256762994</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7693140934435734</v>
+        <v>0.1490400617111175</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-12.52265266988181</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.77684544193179</v>
+        <v>-25.68927421157736</v>
       </c>
       <c r="F26" t="n">
-        <v>0.323272427928808</v>
+        <v>0.07978177967838658</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6319758366338669</v>
+        <v>-0.002464066773336581</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-12.47754397655455</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.72202796993349</v>
+        <v>-25.68228292185988</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1322295448623412</v>
+        <v>-0.1200722232005619</v>
       </c>
       <c r="G27" t="n">
-        <v>0.60621018464135</v>
+        <v>0.01115192818205853</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-12.4215251935921</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.82231500970111</v>
+        <v>-25.73965339291233</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2744774152376949</v>
+        <v>0.07118013671137255</v>
       </c>
       <c r="G28" t="n">
-        <v>0.305349065338485</v>
+        <v>-0.2800077947150875</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-12.35217279007611</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.86050525709042</v>
+        <v>-25.82240983917488</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2496151321412571</v>
+        <v>0.01856217159047549</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1946405525088494</v>
+        <v>-0.3533115983259117</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-12.26722749473813</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.65494301017248</v>
+        <v>-25.57652329950442</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09783606529712682</v>
+        <v>-0.09354721764322484</v>
       </c>
       <c r="G30" t="n">
-        <v>0.003492931019648781</v>
+        <v>-0.5100657402498979</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-12.17223922072595</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.18228469298048</v>
+        <v>-25.13332266370631</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1051546625856517</v>
+        <v>-0.09898052332254116</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.4921031007510498</v>
+        <v>-1.029463578586854</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-12.06934090677841</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.23127609021422</v>
+        <v>-25.1990853008803</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1557956899774481</v>
+        <v>-0.0278369496806017</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.6050242127609371</v>
+        <v>-1.183520706125445</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-11.96111953809497</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.8368311901987</v>
+        <v>-24.78526379265902</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0874276845379546</v>
+        <v>-0.07737822363369315</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.102715012986312</v>
+        <v>-1.68962985707805</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-11.85044880863284</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.25718257418412</v>
+        <v>-24.16464936105268</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.04667677346984551</v>
+        <v>-0.1399070620057768</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.181844891361704</v>
+        <v>-1.733842563774559</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-11.73620548625949</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.89544224666723</v>
+        <v>-23.80319706419831</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2446716693452688</v>
+        <v>-0.33236391377915</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.238482193455011</v>
+        <v>-1.863822946387215</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-11.6238515862162</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.16819100841503</v>
+        <v>-23.02771378227719</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.3614026414820984</v>
+        <v>-0.4365655520964478</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.4398549034636</v>
+        <v>-2.036562790080949</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-11.51615186560502</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.37195642648978</v>
+        <v>-22.23701724445398</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.2978656957912019</v>
+        <v>-0.3812243879844717</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.558929397809099</v>
+        <v>-2.194613069986266</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-11.4121166259814</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.99885198010627</v>
+        <v>-21.85571701649155</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.3773490663433208</v>
+        <v>-0.4456123333600805</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.814464964673908</v>
+        <v>-2.463974108651938</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-11.3163219293099</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.34312399227842</v>
+        <v>-21.20417856557306</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2180812022737232</v>
+        <v>-0.3633795792111991</v>
       </c>
       <c r="G39" t="n">
-        <v>-1.973903028680448</v>
+        <v>-2.650015732032866</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-11.23059112223874</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.00758136274782</v>
+        <v>-20.81876735451833</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.4881361329900068</v>
+        <v>-0.5640845817748598</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.192675409165691</v>
+        <v>-2.855918378824692</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-11.15490900209225</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.4742009449759</v>
+        <v>-20.21395533244195</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2029988694000548</v>
+        <v>-0.3407168029921713</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.045256079167855</v>
+        <v>-2.759179353127177</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-11.08880867270751</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.89607103609096</v>
+        <v>-19.68883615776316</v>
       </c>
       <c r="F42" t="n">
-        <v>0.03103913619864043</v>
+        <v>-0.09975296919020299</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.073640191728717</v>
+        <v>-2.853915256489907</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-11.02929144892836</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.00447212026657</v>
+        <v>-18.77792609524722</v>
       </c>
       <c r="F43" t="n">
-        <v>0.04334590086986293</v>
+        <v>-0.07328033284423288</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.973038936692894</v>
+        <v>-2.814232486576635</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-10.97475313176096</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.65831163313134</v>
+        <v>-18.44329992691555</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07506855065536519</v>
+        <v>-0.03080890242567352</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.164474588844612</v>
+        <v>-3.035924450595583</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-10.92640983332304</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.11666997226629</v>
+        <v>-17.87632466005176</v>
       </c>
       <c r="F45" t="n">
-        <v>0.04554540774727291</v>
+        <v>-0.05509512419707537</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.221321367783387</v>
+        <v>-3.104148440703818</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-10.88274929883455</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.69896005010101</v>
+        <v>-17.42190392071829</v>
       </c>
       <c r="F46" t="n">
-        <v>0.08573877747137194</v>
+        <v>0.01835269474500787</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.149981409598822</v>
+        <v>-2.951911143260227</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-10.84345406665342</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.0702283907328</v>
+        <v>-16.75432739881867</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1035050324275942</v>
+        <v>-0.02349030513714865</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.469629983479564</v>
+        <v>-3.318364699800139</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-10.81168209191291</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.41097857344053</v>
+        <v>-16.09897908777323</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09155175993309832</v>
+        <v>0.01501415752036772</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.395003857281725</v>
+        <v>-3.19837374425572</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-10.78756286918916</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.86008065446638</v>
+        <v>-15.47793261017312</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2197646816621217</v>
+        <v>0.1076029232170545</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.61068645429632</v>
+        <v>-3.48273856197801</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-10.77096108142115</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.18510698146119</v>
+        <v>-14.78079366845689</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3653641815649573</v>
+        <v>0.2005320887876261</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.571291715045567</v>
+        <v>-3.446525252317796</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-10.76123698770294</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.39206692142932</v>
+        <v>-13.96617749334185</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3549165238972599</v>
+        <v>0.2196599432393879</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.64542033373542</v>
+        <v>-3.594625382063402</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-10.7541961949251</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.78296062402086</v>
+        <v>-13.37708932697839</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4393356926207096</v>
+        <v>0.2914712243262554</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.6446609801706</v>
+        <v>-3.530774221104303</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-10.7525219290093</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.15235676534628</v>
+        <v>-12.71861195555377</v>
       </c>
       <c r="F53" t="n">
-        <v>0.492843934334844</v>
+        <v>0.357443338345713</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.681123043584807</v>
+        <v>-3.585879723765129</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-10.7561678817706</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.77014007618493</v>
+        <v>-12.3369844200203</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3920593870592368</v>
+        <v>0.2367977676592073</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.788741772943795</v>
+        <v>-3.759837151623143</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-10.76211432884396</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.29259833003297</v>
+        <v>-11.77710518129673</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1362096049262259</v>
+        <v>0.0540292199887114</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.273798500926904</v>
+        <v>-4.19375534470647</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-10.77433560576149</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.88174877455676</v>
+        <v>-11.35474749162264</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2165832520715823</v>
+        <v>0.06056227910673271</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.35287601009093</v>
+        <v>-4.304634057473048</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-10.79321281258668</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.11702736557154</v>
+        <v>-10.58829789866232</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1734702988137783</v>
+        <v>0.01722675670061943</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.713202368900915</v>
+        <v>-4.711948691181988</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-10.81857045186773</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.817004153650549</v>
+        <v>-10.32200045886161</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.000474036741394218</v>
+        <v>-0.1432848761389422</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.736179360388144</v>
+        <v>-4.729819684560944</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-10.85005524116867</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.243548196880106</v>
+        <v>-9.713758253440698</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07821070333737945</v>
+        <v>-0.08855905026052721</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.020478716596225</v>
+        <v>-5.031034296040535</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-10.88425868960047</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.909249336119473</v>
+        <v>-9.38891203533179</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.05323601719355028</v>
+        <v>-0.1993330246043715</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.941270284403783</v>
+        <v>-4.921412444346763</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-10.92120830674617</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.371640104529675</v>
+        <v>-8.834348271561957</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.07728657751380107</v>
+        <v>-0.2237632617070323</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.345508226944917</v>
+        <v>-5.297789966440704</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-10.96197368196855</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.887237991688653</v>
+        <v>-8.357461140552086</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.03604582356236394</v>
+        <v>-0.1815798619509909</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.314885330598119</v>
+        <v>-5.318253235782322</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-11.00470608362857</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.416386412288817</v>
+        <v>-7.908486799200774</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.05603777000167965</v>
+        <v>-0.1899196588611704</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.310983824351285</v>
+        <v>-5.296258167008222</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-11.05048263143494</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.083972843137391</v>
+        <v>-7.5670526333914</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2233835849246223</v>
+        <v>-0.3458489857061279</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.528250590009729</v>
+        <v>-5.481108390830553</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-11.10177831173825</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.7020572769414</v>
+        <v>-7.206359690101847</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.1758454333063149</v>
+        <v>-0.2814217634219939</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.798292428423171</v>
+        <v>-5.727544807220362</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-11.1591005232634</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.451038554556987</v>
+        <v>-6.955393336928799</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.2802434561662386</v>
+        <v>-0.3986633353696509</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.777174543939466</v>
+        <v>-5.686186222543349</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-11.22283338067048</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.301707748344259</v>
+        <v>-6.796675349578554</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.3484019847602645</v>
+        <v>-0.4872458563967694</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.870090617207197</v>
+        <v>-5.767227577133633</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-11.29213948156509</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.026991957816321</v>
+        <v>-6.524748219555904</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3103164757936833</v>
+        <v>-0.4392625664818434</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.88187368976475</v>
+        <v>-5.746934507728958</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-11.36416676080439</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.890007193183341</v>
+        <v>-6.403971725840981</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.5632073974844641</v>
+        <v>-0.7268480907031982</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.956303431419963</v>
+        <v>-5.773826097765864</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-11.44189587960536</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.689131990682737</v>
+        <v>-6.221373378107428</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5167166300934948</v>
+        <v>-0.6398104614114033</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.798711382114107</v>
+        <v>-5.605851852306518</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-11.52490655905633</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.573042541385153</v>
+        <v>-6.134388118026999</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.5902168182469449</v>
+        <v>-0.7076024055258608</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.760926996112885</v>
+        <v>-5.51856546926073</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-11.61047106293669</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.582560645551087</v>
+        <v>-6.154943033488509</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7017763307612928</v>
+        <v>-0.8376089727442008</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.641538286499185</v>
+        <v>-5.340811273578615</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-11.70185911890993</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.630596304677381</v>
+        <v>-6.212025473878435</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.733787011209313</v>
+        <v>-0.8864956315552058</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.43883016160074</v>
+        <v>-5.159299586980926</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-11.79754573972241</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.871324477028198</v>
+        <v>-6.431714315562599</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.6249376053832025</v>
+        <v>-0.7625638928554269</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.306296779933947</v>
+        <v>-5.009641473197155</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-11.89523025355316</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.082673521802182</v>
+        <v>-6.618449830994138</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.9664634173124688</v>
+        <v>-1.109509918161168</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.136384873654026</v>
+        <v>-4.838760736506946</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-11.99176105661267</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.577536384613744</v>
+        <v>-7.08547845796419</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.8903578608935151</v>
+        <v>-1.044703019094624</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.967415613178709</v>
+        <v>-4.626364307505624</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-12.07927659991055</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.033986430887682</v>
+        <v>-7.514879806567121</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.9496005312523256</v>
+        <v>-1.11005979488052</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.889215288305079</v>
+        <v>-4.551869104336203</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-12.15565766087368</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.612823324126074</v>
+        <v>-8.112438692869183</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.007533971326963</v>
+        <v>-1.158331115457964</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.5172498722688</v>
+        <v>-4.195994128492405</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-12.21747261737444</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.035613059793935</v>
+        <v>-8.525448478314273</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.9704958465877204</v>
+        <v>-1.163450205869079</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.324347882198809</v>
+        <v>-4.048561706191728</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-12.25803764496094</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.508101177048987</v>
+        <v>-8.978978941054505</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.176896000887532</v>
+        <v>-1.296677479586483</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.950693559095946</v>
+        <v>-3.684844440945736</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-12.27584058043484</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.424274345307293</v>
+        <v>-9.861583444826627</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.096142676959766</v>
+        <v>-1.275009718383427</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.944291423006342</v>
+        <v>-3.691377500063757</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-12.2688100354253</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.22118972698032</v>
+        <v>-10.61549061166458</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.187893535274582</v>
+        <v>-1.357150826412416</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.752305894135271</v>
+        <v>-3.487333960275456</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-12.2337902543098</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.04542874468402</v>
+        <v>-11.40396145800469</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.293548419207311</v>
+        <v>-1.484748409907878</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.390617935829747</v>
+        <v>-3.154331237496154</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-12.16804311656675</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.24762945312552</v>
+        <v>-12.59553121653871</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.375859727173243</v>
+        <v>-1.556258568029386</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.256722954667414</v>
+        <v>-3.002853293617383</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-12.06799246664369</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.12317720566595</v>
+        <v>-13.46835577008806</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.463682894635541</v>
+        <v>-1.620293021228268</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.920486433086205</v>
+        <v>-2.669300694118728</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-11.93127892718479</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.29978246205187</v>
+        <v>-14.59979258167002</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.647655934167476</v>
+        <v>-1.799552831737182</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.671706494487727</v>
+        <v>-2.412495173878271</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-11.75934541749254</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.37828709324474</v>
+        <v>-15.65148417664304</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.699291976575244</v>
+        <v>-1.836381479630957</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.261184246582564</v>
+        <v>-1.99022913032408</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-11.55175974296976</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.76016656588608</v>
+        <v>-17.03992289300809</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.690035718466143</v>
+        <v>-1.787193697854592</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.9399384117551317</v>
+        <v>-1.703835005661323</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-11.30869645151016</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.42722257902591</v>
+        <v>-18.66719139781191</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.931326859839155</v>
+        <v>-2.012760983514691</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.7405033625671185</v>
+        <v>-1.518487274331007</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-11.03585898056475</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.01547602136138</v>
+        <v>-20.2376000313741</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.140764428398247</v>
+        <v>-2.224371874345509</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.4372201672385341</v>
+        <v>-1.228086904998681</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-10.73623531901418</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.83187593301677</v>
+        <v>-21.95309756502831</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.332108434430073</v>
+        <v>-2.385014430213488</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.5793109299797872</v>
+        <v>-1.36483600818051</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-10.4132750951795</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.52753862786577</v>
+        <v>-23.60110427753342</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.425613661325681</v>
+        <v>-2.493025928657728</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.3962543516467733</v>
+        <v>-1.159417776593828</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-10.07124187359933</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.60156887484064</v>
+        <v>-25.69647497814031</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.596847890192616</v>
+        <v>-2.619052435812184</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.392300476188572</v>
+        <v>-1.138915230343684</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-9.712469403763615</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.82913255724044</v>
+        <v>-27.902541099274</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.471436721271722</v>
+        <v>-2.4702060448046</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.5171224914815883</v>
+        <v>-1.236217225063393</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.344980121875427</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.11397506457279</v>
+        <v>-30.16338541549747</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.953717881052385</v>
+        <v>-2.922702215620336</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.8752886203226884</v>
+        <v>-1.587182587341543</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-8.974915761092138</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.3012537311286</v>
+        <v>-32.38192850123932</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.022819055451015</v>
+        <v>-2.942497777517026</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.120756206302211</v>
+        <v>-1.840034232123799</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.606715334293938</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.52121078557735</v>
+        <v>-34.61717736540721</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.379191538802799</v>
+        <v>-3.245060896189315</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.32532343820418</v>
+        <v>-2.019752273232172</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-8.249654967627976</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.03931885264073</v>
+        <v>-37.12520435928246</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.647387362515557</v>
+        <v>-3.498344586965348</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.737822623838444</v>
+        <v>-2.454521466000212</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.912281343811871</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.56325299446869</v>
+        <v>-39.59261902974268</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.582266248180812</v>
+        <v>-3.443906791749451</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.198985899135403</v>
+        <v>-2.923147353916955</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.597166489482313</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.12935744374984</v>
+        <v>-42.15810814079027</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.756969937300805</v>
+        <v>-3.617471450522213</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.543117079330172</v>
+        <v>-3.221468566468525</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.312544583304248</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.41480219701291</v>
+        <v>-44.46093947222715</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.016027333630038</v>
+        <v>-3.844976397002887</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.118667804555292</v>
+        <v>-3.745278510863143</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-7.053130847205529</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.75806255962504</v>
+        <v>-46.7877951793786</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.166274601041687</v>
+        <v>-3.977339578732738</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.437989070864991</v>
+        <v>-4.059899640452662</v>
       </c>
     </row>
   </sheetData>
